--- a/Unit 1 Subjects.xlsx
+++ b/Unit 1 Subjects.xlsx
@@ -4,8 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Syllabus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="physics" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="pure-maths" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="pure-maths" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="physics" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="chemistry" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="162">
   <si>
     <t>pure-maths</t>
   </si>
@@ -52,7 +52,7 @@
     <t>alge</t>
   </si>
   <si>
-    <t>Algebra of Porpositons</t>
+    <t>Algebra of Propositons</t>
   </si>
   <si>
     <t>f-o-a</t>
@@ -67,10 +67,10 @@
     <t>Linear and Projectile Motion</t>
   </si>
   <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>Truth Tables</t>
+    <t>num</t>
+  </si>
+  <si>
+    <t>The Real Number System</t>
   </si>
   <si>
     <t>s-s</t>
@@ -85,10 +85,10 @@
     <t>Forces and Motion</t>
   </si>
   <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>The Real Number System</t>
+    <t>proof</t>
+  </si>
+  <si>
+    <t>Proofs</t>
   </si>
   <si>
     <t>mol</t>
@@ -103,10 +103,10 @@
     <t>Work, Energy, Power</t>
   </si>
   <si>
-    <t>p-m-i</t>
-  </si>
-  <si>
-    <t>Principle of Mathematical Induction</t>
+    <t>p-s</t>
+  </si>
+  <si>
+    <t>Progressions and Series</t>
   </si>
   <si>
     <t>redox</t>
@@ -385,13 +385,55 @@
     <t>Letter</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>reas, num</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a-c</t>
+  </si>
+  <si>
     <t>a-b</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>c-d</t>
+  </si>
+  <si>
+    <t>diff, inte</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>diff, coor</t>
+  </si>
+  <si>
+    <t>d-e, diff</t>
+  </si>
+  <si>
+    <t>coor, a-v</t>
+  </si>
+  <si>
+    <t>b-d</t>
+  </si>
+  <si>
+    <t>s-i-l, p-s</t>
+  </si>
+  <si>
+    <t>s-i-l, i-m</t>
+  </si>
+  <si>
+    <t>i-m, func, poly</t>
   </si>
   <si>
     <t>circ, forc</t>
@@ -400,15 +442,9 @@
     <t>e</t>
   </si>
   <si>
-    <t>a-c</t>
-  </si>
-  <si>
     <t>s-h-m, wave</t>
   </si>
   <si>
-    <t>c-d</t>
-  </si>
-  <si>
     <t>a-d</t>
   </si>
   <si>
@@ -418,36 +454,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>reas, truth</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>reas, num</t>
-  </si>
-  <si>
-    <t>diff, inte</t>
-  </si>
-  <si>
-    <t>truth, reas</t>
-  </si>
-  <si>
-    <t>b-c</t>
-  </si>
-  <si>
-    <t>diff, coor</t>
-  </si>
-  <si>
-    <t>d-e, diff</t>
-  </si>
-  <si>
-    <t>coor, a-v</t>
-  </si>
-  <si>
     <t>g-7, redox</t>
   </si>
   <si>
@@ -487,7 +493,13 @@
     <t>mol, f-t</t>
   </si>
   <si>
-    <t>s-p</t>
+    <t>redoc</t>
+  </si>
+  <si>
+    <t>redox, g-7</t>
+  </si>
+  <si>
+    <t>salt, trans</t>
   </si>
 </sst>
 </file>
@@ -1245,6 +1257,14 @@
         <v>117</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -1322,7 +1342,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1342,7 +1362,7 @@
         <v>124</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -1359,10 +1379,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1382,7 +1402,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -1399,10 +1419,10 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -1419,10 +1439,10 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1439,10 +1459,10 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1459,10 +1479,10 @@
         <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1476,18 +1496,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -1496,18 +1516,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -1516,18 +1536,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -1536,18 +1556,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -1556,18 +1576,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -1576,18 +1596,18 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B16" s="5">
         <v>0.0</v>
@@ -1596,18 +1616,18 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B17" s="5">
         <v>0.0</v>
@@ -1616,18 +1636,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -1636,18 +1656,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -1656,120 +1676,2553 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
       </c>
       <c r="C20" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
       </c>
       <c r="C21" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
       </c>
       <c r="C22" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
       </c>
       <c r="C23" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
       </c>
       <c r="C24" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
       </c>
       <c r="C25" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
       </c>
       <c r="C26" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
       </c>
       <c r="C27" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
       </c>
       <c r="C28" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2.0</v>
+      <c r="B35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D102" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D110" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D113" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C114" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D114" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D115" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D116" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D117" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D118" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D119" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C120" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C122" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C123" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D123" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C125" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D125" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D126" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D127" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D128" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C129" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D129" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C130" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D130" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C131" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D131" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C132" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D132" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C133" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C134" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C135" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C136" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C137" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D137" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C138" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D138" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C139" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D139" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C140" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D140" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C141" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D141" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C142" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D142" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C143" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D143" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D144" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C145" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D145" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C146" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D146" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1841,10 +4294,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1861,10 +4314,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1881,10 +4334,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -1901,10 +4354,10 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1921,10 +4374,10 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1941,10 +4394,10 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
@@ -1961,10 +4414,10 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1981,10 +4434,10 @@
         <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1998,18 +4451,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -2018,18 +4471,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -2038,18 +4491,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -2058,18 +4511,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -2078,18 +4531,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -2098,18 +4551,18 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B16" s="5">
         <v>0.0</v>
@@ -2118,18 +4571,18 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B17" s="5">
         <v>0.0</v>
@@ -2138,18 +4591,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -2158,18 +4611,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -2178,1233 +4631,120 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
       </c>
       <c r="C20" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
       </c>
       <c r="C21" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
       </c>
       <c r="C22" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
       </c>
       <c r="C23" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
       </c>
       <c r="C24" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
       </c>
       <c r="C25" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
       </c>
       <c r="C26" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
       </c>
       <c r="C27" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
       </c>
       <c r="C28" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
       </c>
       <c r="C29" s="5">
         <v>2.0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C32" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5">
-        <v>2018.0</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C40" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C41" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C45" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D45" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C46" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C47" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D47" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5">
-        <v>2017.0</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C50" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C54" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D57" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C58" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D58" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C59" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D59" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C60" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D60" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C61" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D61" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C62" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D62" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C63" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C64" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D64" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C65" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D65" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C66" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D66" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C67" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D67" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C68" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D68" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C69" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C70" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C71" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C72" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C73" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D73" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C74" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D74" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C75" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D75" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C76" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D76" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C77" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D77" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C78" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D78" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C79" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D79" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C80" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D80" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +4816,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -3496,10 +4836,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -3536,7 +4876,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>49</v>
@@ -3556,7 +4896,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>55</v>
@@ -3596,10 +4936,10 @@
         <v>3.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -3619,7 +4959,7 @@
         <v>130</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10">
@@ -3636,7 +4976,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -3656,7 +4996,7 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
@@ -3676,7 +5016,7 @@
         <v>2.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>79</v>
@@ -3696,7 +5036,7 @@
         <v>3.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>31</v>
@@ -3716,7 +5056,7 @@
         <v>3.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>102</v>
@@ -3736,10 +5076,10 @@
         <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -3756,7 +5096,7 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
@@ -3776,7 +5116,7 @@
         <v>4.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>19</v>
@@ -3796,7 +5136,7 @@
         <v>4.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>25</v>
@@ -3816,7 +5156,7 @@
         <v>5.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>49</v>
@@ -3836,10 +5176,10 @@
         <v>6.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -3856,7 +5196,7 @@
         <v>6.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>85</v>
@@ -3896,7 +5236,7 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>7</v>
@@ -3916,7 +5256,7 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>31</v>
@@ -3936,10 +5276,10 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
@@ -3976,10 +5316,10 @@
         <v>3.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
@@ -3996,7 +5336,7 @@
         <v>3.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>85</v>
@@ -4016,7 +5356,7 @@
         <v>4.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>13</v>
@@ -4036,10 +5376,10 @@
         <v>4.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
@@ -4056,7 +5396,7 @@
         <v>4.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>19</v>
@@ -4136,7 +5476,7 @@
         <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>79</v>
@@ -4156,7 +5496,7 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>97</v>
@@ -4176,7 +5516,7 @@
         <v>4.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>7</v>
@@ -4216,7 +5556,7 @@
         <v>6.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>91</v>
@@ -4256,7 +5596,7 @@
         <v>2.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>61</v>
@@ -4296,7 +5636,7 @@
         <v>3.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>108</v>
@@ -4316,10 +5656,10 @@
         <v>3.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
@@ -4336,10 +5676,10 @@
         <v>3.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -4356,10 +5696,10 @@
         <v>3.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -4376,10 +5716,10 @@
         <v>3.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
@@ -4396,10 +5736,10 @@
         <v>4.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
@@ -4416,7 +5756,7 @@
         <v>4.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>37</v>
@@ -4436,10 +5776,10 @@
         <v>4.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51">
@@ -4456,10 +5796,10 @@
         <v>5.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
@@ -4476,10 +5816,10 @@
         <v>5.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
@@ -4496,7 +5836,7 @@
         <v>5.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>49</v>
@@ -4516,7 +5856,7 @@
         <v>6.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>13</v>
@@ -4536,7 +5876,7 @@
         <v>6.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>85</v>
@@ -4556,10 +5896,710 @@
         <v>6.0</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>147</v>
+      <c r="F73" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Unit 1 Subjects.xlsx
+++ b/Unit 1 Subjects.xlsx
@@ -4,8 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Syllabus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="pure-maths" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="physics" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="physics" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="pure-maths" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="chemistry" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="170">
   <si>
     <t>pure-maths</t>
   </si>
@@ -385,34 +385,79 @@
     <t>Letter</t>
   </si>
   <si>
+    <t>a-b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>circ, forc</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a-c</t>
+  </si>
+  <si>
+    <t>s-h-m, wave</t>
+  </si>
+  <si>
+    <t>c-d</t>
+  </si>
+  <si>
+    <t>a-d</t>
+  </si>
+  <si>
+    <t>a-e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d-h</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>w-e-p, l-p-m, forc</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
+    <t xml:space="preserve">sound, </t>
+  </si>
+  <si>
+    <t>t-p, therm</t>
+  </si>
+  <si>
+    <t>l-p-m, units</t>
+  </si>
+  <si>
+    <t>h-t, t-p</t>
+  </si>
+  <si>
+    <t>shm</t>
+  </si>
+  <si>
+    <t>b-d</t>
+  </si>
+  <si>
+    <t>e-f</t>
+  </si>
+  <si>
     <t>reas, num</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>a-c</t>
-  </si>
-  <si>
-    <t>a-b</t>
-  </si>
-  <si>
-    <t>c-d</t>
-  </si>
-  <si>
-    <t>diff, inte</t>
-  </si>
-  <si>
-    <t>b-c</t>
+    <t>d-e, inte</t>
   </si>
   <si>
     <t>diff, coor</t>
@@ -424,9 +469,6 @@
     <t>coor, a-v</t>
   </si>
   <si>
-    <t>b-d</t>
-  </si>
-  <si>
     <t>s-i-l, p-s</t>
   </si>
   <si>
@@ -434,24 +476,6 @@
   </si>
   <si>
     <t>i-m, func, poly</t>
-  </si>
-  <si>
-    <t>circ, forc</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>s-h-m, wave</t>
-  </si>
-  <si>
-    <t>a-d</t>
-  </si>
-  <si>
-    <t>a-e</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>g-7, redox</t>
@@ -1257,14 +1281,6 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -1342,7 +1358,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1362,7 +1378,7 @@
         <v>124</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1379,10 +1395,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1402,7 +1418,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1419,10 +1435,10 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1439,10 +1455,10 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
@@ -1459,10 +1475,10 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1479,10 +1495,10 @@
         <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1496,18 +1512,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -1516,18 +1532,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -1536,18 +1552,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -1556,18 +1572,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -1576,18 +1592,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2021.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -1596,18 +1612,18 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B16" s="5">
         <v>0.0</v>
@@ -1616,18 +1632,18 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B17" s="5">
         <v>0.0</v>
@@ -1636,18 +1652,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2021.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -1656,18 +1672,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -1676,18 +1692,18 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -1696,18 +1712,18 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
@@ -1716,18 +1732,18 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -1736,18 +1752,18 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
@@ -1756,18 +1772,18 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
@@ -1776,18 +1792,18 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -1796,18 +1812,18 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
@@ -1816,18 +1832,18 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>128</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
@@ -1836,18 +1852,18 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
@@ -1859,15 +1875,15 @@
         <v>4.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B29" s="5">
         <v>0.0</v>
@@ -1882,12 +1898,12 @@
         <v>123</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B30" s="5">
         <v>0.0</v>
@@ -1896,18 +1912,18 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>2018.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -1916,18 +1932,18 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B32" s="5">
         <v>0.0</v>
@@ -1936,18 +1952,18 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B33" s="5">
         <v>0.0</v>
@@ -1956,18 +1972,18 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>2018.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B34" s="5">
         <v>0.0</v>
@@ -1976,18 +1992,18 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B35" s="5">
         <v>0.0</v>
@@ -1996,18 +2012,18 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B36" s="5">
         <v>0.0</v>
@@ -2016,18 +2032,18 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B37" s="5">
         <v>0.0</v>
@@ -2036,18 +2052,18 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -2059,15 +2075,15 @@
         <v>1.0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -2076,18 +2092,18 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B40" s="5">
         <v>0.0</v>
@@ -2096,18 +2112,18 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B41" s="5">
         <v>0.0</v>
@@ -2119,15 +2135,15 @@
         <v>2.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B42" s="5">
         <v>0.0</v>
@@ -2136,18 +2152,18 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B43" s="5">
         <v>0.0</v>
@@ -2156,18 +2172,18 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B44" s="5">
         <v>0.0</v>
@@ -2176,18 +2192,18 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B45" s="5">
         <v>0.0</v>
@@ -2196,18 +2212,18 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B46" s="5">
         <v>0.0</v>
@@ -2219,15 +2235,15 @@
         <v>5.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
-        <v>2017.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B47" s="5">
         <v>0.0</v>
@@ -2236,18 +2252,18 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B48" s="5">
         <v>0.0</v>
@@ -2256,18 +2272,18 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -2276,18 +2292,18 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
-        <v>2017.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B50" s="5">
         <v>0.0</v>
@@ -2296,18 +2312,18 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B51" s="5">
         <v>0.0</v>
@@ -2316,18 +2332,18 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B52" s="5">
         <v>0.0</v>
@@ -2336,18 +2352,18 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B53" s="5">
         <v>0.0</v>
@@ -2356,18 +2372,18 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -2376,18 +2392,18 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -2396,18 +2412,18 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B56" s="5">
         <v>0.0</v>
@@ -2416,18 +2432,18 @@
         <v>2.0</v>
       </c>
       <c r="D56" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B57" s="5">
         <v>0.0</v>
@@ -2436,18 +2452,18 @@
         <v>2.0</v>
       </c>
       <c r="D57" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B58" s="5">
         <v>0.0</v>
@@ -2456,18 +2472,18 @@
         <v>2.0</v>
       </c>
       <c r="D58" s="5">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B59" s="5">
         <v>0.0</v>
@@ -2476,18 +2492,18 @@
         <v>2.0</v>
       </c>
       <c r="D59" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B60" s="5">
         <v>0.0</v>
@@ -2499,15 +2515,15 @@
         <v>4.0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B61" s="5">
         <v>0.0</v>
@@ -2516,18 +2532,18 @@
         <v>2.0</v>
       </c>
       <c r="D61" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B62" s="5">
         <v>0.0</v>
@@ -2536,18 +2552,18 @@
         <v>2.0</v>
       </c>
       <c r="D62" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B63" s="5">
         <v>0.0</v>
@@ -2556,18 +2572,18 @@
         <v>2.0</v>
       </c>
       <c r="D63" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5">
-        <v>2016.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -2576,18 +2592,18 @@
         <v>2.0</v>
       </c>
       <c r="D64" s="5">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5">
-        <v>2016.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -2596,18 +2612,18 @@
         <v>2.0</v>
       </c>
       <c r="D65" s="5">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="5">
-        <v>2016.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B66" s="5">
         <v>0.0</v>
@@ -2616,18 +2632,18 @@
         <v>2.0</v>
       </c>
       <c r="D66" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5">
-        <v>2016.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B67" s="5">
         <v>0.0</v>
@@ -2636,18 +2652,18 @@
         <v>2.0</v>
       </c>
       <c r="D67" s="5">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5">
-        <v>2016.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B68" s="5">
         <v>0.0</v>
@@ -2656,18 +2672,18 @@
         <v>2.0</v>
       </c>
       <c r="D68" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5">
-        <v>2015.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B69" s="5">
         <v>0.0</v>
@@ -2676,18 +2692,18 @@
         <v>2.0</v>
       </c>
       <c r="D69" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B70" s="5">
         <v>0.0</v>
@@ -2699,15 +2715,15 @@
         <v>1.0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B71" s="5">
         <v>0.0</v>
@@ -2716,18 +2732,18 @@
         <v>2.0</v>
       </c>
       <c r="D71" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B72" s="5">
         <v>0.0</v>
@@ -2736,18 +2752,18 @@
         <v>2.0</v>
       </c>
       <c r="D72" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>123</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B73" s="5">
         <v>0.0</v>
@@ -2756,18 +2772,18 @@
         <v>2.0</v>
       </c>
       <c r="D73" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B74" s="5">
         <v>0.0</v>
@@ -2776,18 +2792,18 @@
         <v>2.0</v>
       </c>
       <c r="D74" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B75" s="5">
         <v>0.0</v>
@@ -2796,18 +2812,18 @@
         <v>2.0</v>
       </c>
       <c r="D75" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B76" s="5">
         <v>0.0</v>
@@ -2819,15 +2835,15 @@
         <v>5.0</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B77" s="5">
         <v>0.0</v>
@@ -2836,18 +2852,18 @@
         <v>2.0</v>
       </c>
       <c r="D77" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5">
-        <v>2015.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B78" s="5">
         <v>0.0</v>
@@ -2856,1373 +2872,13 @@
         <v>2.0</v>
       </c>
       <c r="D78" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C79" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D79" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5">
-        <v>2015.0</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C80" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D80" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C81" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D81" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C82" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C83" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D83" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C84" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D84" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C85" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D85" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C86" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D86" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C87" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D87" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C88" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D88" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C89" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D89" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C90" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D90" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B91" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C91" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D91" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5">
-        <v>2014.0</v>
-      </c>
-      <c r="B92" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C92" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D92" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B93" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C93" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B94" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C94" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D94" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B95" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C95" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B96" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C96" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D96" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B97" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C97" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D97" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C98" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D98" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B99" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C99" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D99" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B100" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C100" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D100" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B101" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C101" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D101" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B102" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C102" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D102" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B103" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C103" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D103" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B104" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C104" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D104" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B105" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C105" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D105" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B106" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C106" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D106" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5">
-        <v>2013.0</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C107" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D107" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B108" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C108" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C109" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D109" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B110" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C110" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D110" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B111" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C111" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D111" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B112" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C112" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D112" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B113" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C113" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D113" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B114" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C114" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D114" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B115" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C115" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D115" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B116" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C116" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D116" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B117" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C117" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D117" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B118" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C118" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D118" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="5">
-        <v>2012.0</v>
-      </c>
-      <c r="B119" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C119" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D119" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B120" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C120" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D120" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B121" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C121" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D121" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B122" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C122" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D122" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B123" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C123" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D123" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B124" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C124" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D124" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B125" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C125" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D125" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B126" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C126" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D126" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B127" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C127" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D127" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B128" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C128" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D128" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B129" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C129" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D129" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B130" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C130" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D130" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B131" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C131" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D131" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="5">
-        <v>2011.0</v>
-      </c>
-      <c r="B132" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C132" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D132" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B133" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C133" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D133" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B134" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C134" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B135" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C135" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D135" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B136" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C136" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D136" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B137" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C137" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D137" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B138" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C138" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D138" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B139" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C139" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D139" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B140" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C140" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D140" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B141" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C141" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D141" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B142" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C142" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D142" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B143" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C143" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D143" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B144" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C144" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D144" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B145" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C145" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D145" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="5">
-        <v>2010.0</v>
-      </c>
-      <c r="B146" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C146" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D146" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4294,10 +2950,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4314,10 +2970,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -4334,10 +2990,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -4354,10 +3010,10 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -4374,10 +3030,10 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -4394,10 +3050,10 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -4414,10 +3070,10 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -4434,10 +3090,10 @@
         <v>3.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -4451,18 +3107,18 @@
         <v>2.0</v>
       </c>
       <c r="D10" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -4471,18 +3127,18 @@
         <v>2.0</v>
       </c>
       <c r="D11" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -4491,18 +3147,18 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -4511,18 +3167,18 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -4531,18 +3187,18 @@
         <v>2.0</v>
       </c>
       <c r="D14" s="5">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B15" s="5">
         <v>0.0</v>
@@ -4551,18 +3207,18 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B16" s="5">
         <v>0.0</v>
@@ -4571,18 +3227,18 @@
         <v>2.0</v>
       </c>
       <c r="D16" s="5">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B17" s="5">
         <v>0.0</v>
@@ -4591,18 +3247,18 @@
         <v>2.0</v>
       </c>
       <c r="D17" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>2017.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -4611,18 +3267,18 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="5">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -4631,120 +3287,2553 @@
         <v>2.0</v>
       </c>
       <c r="D19" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
       </c>
       <c r="C20" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B21" s="5">
         <v>0.0</v>
       </c>
       <c r="C21" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
       </c>
       <c r="C22" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B23" s="5">
         <v>0.0</v>
       </c>
       <c r="C23" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B24" s="5">
         <v>0.0</v>
       </c>
       <c r="C24" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
       </c>
       <c r="C25" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B26" s="5">
         <v>0.0</v>
       </c>
       <c r="C26" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B27" s="5">
         <v>0.0</v>
       </c>
       <c r="C27" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B28" s="5">
         <v>0.0</v>
       </c>
       <c r="C28" s="5">
         <v>2.0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>2018.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
         <v>2017.0</v>
       </c>
-      <c r="B29" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2.0</v>
+      <c r="B35" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>2017.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>2016.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5">
+        <v>2015.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D88" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5">
+        <v>2014.0</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D102" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D103" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B106" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>2013.0</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D110" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D113" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C114" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D114" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D115" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D116" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D117" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D118" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5">
+        <v>2012.0</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D119" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C120" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C122" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C123" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D123" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D124" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C125" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D125" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D126" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D127" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D128" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C129" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D129" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C130" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D130" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C131" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D131" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5">
+        <v>2011.0</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C132" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D132" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C133" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C134" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B135" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C135" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D135" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C136" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C137" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D137" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B138" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C138" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D138" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C139" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D139" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C140" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D140" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C141" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D141" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C142" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D142" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C143" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D143" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D144" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C145" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D145" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5">
+        <v>2010.0</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C146" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D146" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +5905,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -4836,10 +5925,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -4876,7 +5965,7 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>49</v>
@@ -4896,7 +5985,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>55</v>
@@ -4936,10 +6025,10 @@
         <v>3.0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -4959,7 +6048,7 @@
         <v>130</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -4976,7 +6065,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -4996,7 +6085,7 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
@@ -5016,7 +6105,7 @@
         <v>2.0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>79</v>
@@ -5036,7 +6125,7 @@
         <v>3.0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>31</v>
@@ -5056,7 +6145,7 @@
         <v>3.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>102</v>
@@ -5076,10 +6165,10 @@
         <v>3.0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -5096,7 +6185,7 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
@@ -5116,7 +6205,7 @@
         <v>4.0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>19</v>
@@ -5136,7 +6225,7 @@
         <v>4.0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>25</v>
@@ -5156,7 +6245,7 @@
         <v>5.0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>49</v>
@@ -5176,10 +6265,10 @@
         <v>6.0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -5196,7 +6285,7 @@
         <v>6.0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>85</v>
@@ -5236,7 +6325,7 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>7</v>
@@ -5256,7 +6345,7 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>31</v>
@@ -5276,10 +6365,10 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -5316,10 +6405,10 @@
         <v>3.0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -5336,7 +6425,7 @@
         <v>3.0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>85</v>
@@ -5356,7 +6445,7 @@
         <v>4.0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>13</v>
@@ -5376,10 +6465,10 @@
         <v>4.0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
@@ -5396,7 +6485,7 @@
         <v>4.0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>19</v>
@@ -5476,7 +6565,7 @@
         <v>2.0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>79</v>
@@ -5496,7 +6585,7 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>97</v>
@@ -5516,7 +6605,7 @@
         <v>4.0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>7</v>
@@ -5556,7 +6645,7 @@
         <v>6.0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>91</v>
@@ -5596,7 +6685,7 @@
         <v>2.0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>61</v>
@@ -5636,7 +6725,7 @@
         <v>3.0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>108</v>
@@ -5656,10 +6745,10 @@
         <v>3.0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
@@ -5676,10 +6765,10 @@
         <v>3.0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
@@ -5696,10 +6785,10 @@
         <v>3.0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
@@ -5716,10 +6805,10 @@
         <v>3.0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48">
@@ -5736,10 +6825,10 @@
         <v>4.0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49">
@@ -5756,7 +6845,7 @@
         <v>4.0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>37</v>
@@ -5776,10 +6865,10 @@
         <v>4.0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51">
@@ -5796,7 +6885,7 @@
         <v>5.0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>73</v>
@@ -5816,7 +6905,7 @@
         <v>5.0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>73</v>
@@ -5836,7 +6925,7 @@
         <v>5.0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>49</v>
@@ -5856,7 +6945,7 @@
         <v>6.0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>13</v>
@@ -5876,7 +6965,7 @@
         <v>6.0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>85</v>
@@ -5896,10 +6985,10 @@
         <v>6.0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
@@ -5916,10 +7005,10 @@
         <v>1.0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58">
@@ -5936,10 +7025,10 @@
         <v>1.0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59">
@@ -5956,7 +7045,7 @@
         <v>2.0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>67</v>
@@ -5996,7 +7085,7 @@
         <v>4.0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>43</v>
@@ -6016,7 +7105,7 @@
         <v>5.0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>49</v>
@@ -6036,7 +7125,7 @@
         <v>6.0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>108</v>
@@ -6056,7 +7145,7 @@
         <v>1.0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>7</v>
@@ -6076,10 +7165,10 @@
         <v>1.0</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66">
@@ -6096,7 +7185,7 @@
         <v>2.0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>73</v>
@@ -6116,7 +7205,7 @@
         <v>3.0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>102</v>
@@ -6136,10 +7225,10 @@
         <v>3.0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69">
@@ -6156,7 +7245,7 @@
         <v>4.0</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>7</v>
@@ -6176,7 +7265,7 @@
         <v>5.0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>55</v>
@@ -6196,7 +7285,7 @@
         <v>6.0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>85</v>
@@ -6216,7 +7305,7 @@
         <v>1.0</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>7</v>
@@ -6236,7 +7325,7 @@
         <v>1.0</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>31</v>
@@ -6256,7 +7345,7 @@
         <v>2.0</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>73</v>
@@ -6276,7 +7365,7 @@
         <v>3.0</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>91</v>
@@ -6336,7 +7425,7 @@
         <v>6.0</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>97</v>
@@ -6356,7 +7445,7 @@
         <v>1.0</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>13</v>
@@ -6376,7 +7465,7 @@
         <v>1.0</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>25</v>
@@ -6396,7 +7485,7 @@
         <v>1.0</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>37</v>
@@ -6416,7 +7505,7 @@
         <v>1.0</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>25</v>
@@ -6436,7 +7525,7 @@
         <v>2.0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>79</v>
@@ -6456,10 +7545,10 @@
         <v>3.0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85">
@@ -6476,7 +7565,7 @@
         <v>3.0</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>108</v>
@@ -6496,7 +7585,7 @@
         <v>3.0</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>97</v>
@@ -6536,7 +7625,7 @@
         <v>5.0</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>67</v>
@@ -6556,7 +7645,7 @@
         <v>5.0</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>61</v>
@@ -6596,7 +7685,7 @@
         <v>6.0</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>85</v>
